--- a/xlsx/UTC−07-00_intext.xlsx
+++ b/xlsx/UTC−07-00_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="167">
   <si>
     <t>UTC−07-00</t>
   </si>
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E5%8D%80</t>
   </si>
   <si>
-    <t>時區</t>
+    <t>时区</t>
   </si>
   <si>
     <t>政策_政策_加州_UTC−07-00</t>
@@ -35,13 +35,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%94%E8%AA%BF%E4%B8%96%E7%95%8C%E6%99%82</t>
   </si>
   <si>
-    <t>協調世界時</t>
+    <t>协调世界时</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E5%8D%80%E6%A8%99%E6%BA%96%E6%99%82%E9%96%93</t>
   </si>
   <si>
-    <t>山區標準時間</t>
+    <t>山区标准时间</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E6%96%AF%E6%B2%B3</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E5%88%97%E9%A1%9B%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E7%9C%81</t>
   </si>
   <si>
-    <t>不列顛哥倫比亞省</t>
+    <t>不列颠哥伦比亚省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E4%B8%8B%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>南下加利福尼亞州</t>
+    <t>南下加利福尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%87%E7%93%A6%E7%93%A6</t>
@@ -77,19 +77,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E4%BA%9E%E9%87%8C%E7%89%B9%E5%B7%9E</t>
   </si>
   <si>
-    <t>納亞里特州</t>
+    <t>纳亚里特州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8C%AB%E9%82%A3%E7%BE%85%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>錫那羅亞州</t>
+    <t>锡那罗亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E8%AB%BE%E6%8B%89%E5%B7%9E</t>
   </si>
   <si>
-    <t>索諾拉州</t>
+    <t>索诺拉州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/UTC-7</t>
@@ -119,19 +119,16 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8F%E8%B0%83%E4%B8%96%E7%95%8C%E6%97%B6</t>
   </si>
   <si>
-    <t>协调世界时</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A8%99%E6%BA%96%E6%99%82%E9%96%93</t>
   </si>
   <si>
-    <t>標準時間</t>
+    <t>标准时间</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E6%99%82%E5%88%B6</t>
   </si>
   <si>
-    <t>夏時制</t>
+    <t>夏时制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/UTC%E5%81%8F%E7%A7%BB%E9%87%8F</t>
@@ -203,7 +200,7 @@
     <t>https://zh.wikipedia.org/wiki/IERS%E5%8F%83%E8%80%83%E5%AD%90%E5%8D%88%E7%B7%9A</t>
   </si>
   <si>
-    <t>IERS參考子午線</t>
+    <t>IERS参考子午线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/UTC%E2%88%9206:00</t>
@@ -513,9 +510,6 @@
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%B6%E5%8C%BA</t>
-  </si>
-  <si>
-    <t>时区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%B6%E5%8C%BA%E4%BF%A1%E6%81%AF%E6%95%B0%E6%8D%AE%E5%BA%93</t>
@@ -1356,7 +1350,7 @@
         <v>33</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1382,10 +1376,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>2</v>
@@ -1411,10 +1405,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -1440,10 +1434,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -1469,10 +1463,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>3</v>
@@ -1498,10 +1492,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>3</v>
@@ -1527,10 +1521,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1556,10 +1550,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1585,10 +1579,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1614,10 +1608,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1643,10 +1637,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1672,10 +1666,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1701,10 +1695,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1730,10 +1724,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1759,10 +1753,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>10</v>
@@ -1788,10 +1782,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1817,10 +1811,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1846,10 +1840,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -1875,10 +1869,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -1904,10 +1898,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -1933,10 +1927,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -1962,10 +1956,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -1991,10 +1985,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2020,10 +2014,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2049,10 +2043,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2078,10 +2072,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2107,10 +2101,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>2</v>
@@ -2136,10 +2130,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2165,10 +2159,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2194,10 +2188,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2223,10 +2217,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2252,10 +2246,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2281,10 +2275,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2310,10 +2304,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2339,10 +2333,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2368,10 +2362,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2397,10 +2391,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2426,10 +2420,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2455,10 +2449,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2484,10 +2478,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2513,10 +2507,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
         <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2542,10 +2536,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>116</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2571,10 +2565,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
         <v>117</v>
-      </c>
-      <c r="F59" t="s">
-        <v>118</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2600,10 +2594,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
         <v>119</v>
-      </c>
-      <c r="F60" t="s">
-        <v>120</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2629,10 +2623,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
         <v>121</v>
-      </c>
-      <c r="F61" t="s">
-        <v>122</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2658,10 +2652,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
         <v>123</v>
-      </c>
-      <c r="F62" t="s">
-        <v>124</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2687,10 +2681,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" t="s">
         <v>125</v>
-      </c>
-      <c r="F63" t="s">
-        <v>126</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2716,10 +2710,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" t="s">
         <v>127</v>
-      </c>
-      <c r="F64" t="s">
-        <v>128</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2745,10 +2739,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" t="s">
         <v>129</v>
-      </c>
-      <c r="F65" t="s">
-        <v>130</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -2774,10 +2768,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66" t="s">
         <v>131</v>
-      </c>
-      <c r="F66" t="s">
-        <v>132</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -2803,10 +2797,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>132</v>
+      </c>
+      <c r="F67" t="s">
         <v>133</v>
-      </c>
-      <c r="F67" t="s">
-        <v>134</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -2832,10 +2826,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>134</v>
+      </c>
+      <c r="F68" t="s">
         <v>135</v>
-      </c>
-      <c r="F68" t="s">
-        <v>136</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -2861,10 +2855,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>136</v>
+      </c>
+      <c r="F69" t="s">
         <v>137</v>
-      </c>
-      <c r="F69" t="s">
-        <v>138</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -2890,10 +2884,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>138</v>
+      </c>
+      <c r="F70" t="s">
         <v>139</v>
-      </c>
-      <c r="F70" t="s">
-        <v>140</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -2919,10 +2913,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>140</v>
+      </c>
+      <c r="F71" t="s">
         <v>141</v>
-      </c>
-      <c r="F71" t="s">
-        <v>142</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -2948,10 +2942,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>142</v>
+      </c>
+      <c r="F72" t="s">
         <v>143</v>
-      </c>
-      <c r="F72" t="s">
-        <v>144</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -2977,10 +2971,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>144</v>
+      </c>
+      <c r="F73" t="s">
         <v>145</v>
-      </c>
-      <c r="F73" t="s">
-        <v>146</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3006,10 +3000,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>146</v>
+      </c>
+      <c r="F74" t="s">
         <v>147</v>
-      </c>
-      <c r="F74" t="s">
-        <v>148</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3035,10 +3029,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>148</v>
+      </c>
+      <c r="F75" t="s">
         <v>149</v>
-      </c>
-      <c r="F75" t="s">
-        <v>150</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3064,10 +3058,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>150</v>
+      </c>
+      <c r="F76" t="s">
         <v>151</v>
-      </c>
-      <c r="F76" t="s">
-        <v>152</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3093,10 +3087,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>152</v>
+      </c>
+      <c r="F77" t="s">
         <v>153</v>
-      </c>
-      <c r="F77" t="s">
-        <v>154</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3122,10 +3116,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>154</v>
+      </c>
+      <c r="F78" t="s">
         <v>155</v>
-      </c>
-      <c r="F78" t="s">
-        <v>156</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3151,10 +3145,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>156</v>
+      </c>
+      <c r="F79" t="s">
         <v>157</v>
-      </c>
-      <c r="F79" t="s">
-        <v>158</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3180,10 +3174,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>158</v>
+      </c>
+      <c r="F80" t="s">
         <v>159</v>
-      </c>
-      <c r="F80" t="s">
-        <v>160</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3209,10 +3203,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>160</v>
+      </c>
+      <c r="F81" t="s">
         <v>161</v>
-      </c>
-      <c r="F81" t="s">
-        <v>162</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3238,10 +3232,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>162</v>
+      </c>
+      <c r="F82" t="s">
         <v>163</v>
-      </c>
-      <c r="F82" t="s">
-        <v>164</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3267,10 +3261,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F83" t="s">
-        <v>166</v>
+        <v>3</v>
       </c>
       <c r="G83" t="n">
         <v>2</v>
@@ -3296,10 +3290,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F84" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
